--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/4 IMPORTANCIA RELATIVA/IMPORTANCIA RELATIVA.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/4 IMPORTANCIA RELATIVA/IMPORTANCIA RELATIVA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\4 IMPORTANCIA RELATIVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\4 IMPORTANCIA RELATIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA1E6FB-5D9D-4A49-A011-86E446FE20A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CADAC76-BAB8-4AA7-B41F-376426F7BC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,6 +790,9 @@
     <xf numFmtId="10" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,9 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2052,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,11 +2067,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="2"/>
       <c r="H3" s="43" t="s">
         <v>58</v>
@@ -2079,7 +2079,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2"/>
       <c r="I4" s="1"/>
     </row>
@@ -2100,11 +2100,11 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="13"/>
       <c r="H7" s="14" t="s">
         <v>2</v>
@@ -2112,11 +2112,11 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="13"/>
       <c r="H8" s="14" t="s">
         <v>1</v>
@@ -2124,22 +2124,22 @@
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="13"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
@@ -2266,11 +2266,11 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
       <c r="F23" s="11"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -2323,30 +2323,30 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="68" t="s">
         <v>62</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="67"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="12"/>
-      <c r="F31" s="68"/>
+      <c r="F31" s="69"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
@@ -2359,7 +2359,7 @@
         <v>59</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="65" t="e">
+      <c r="F32" s="66" t="e">
         <f>SUM(Tabla2[Importancia Relativa])</f>
         <v>#DIV/0!</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="66"/>
+      <c r="F33" s="67"/>
     </row>
     <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="24"/>
@@ -2789,7 +2789,7 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="2"/>
       <c r="G3" s="43" t="s">
         <v>66</v>
@@ -2797,12 +2797,12 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="72"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
@@ -2819,11 +2819,11 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
       <c r="G7" s="14" t="s">
         <v>2</v>
       </c>
@@ -2831,11 +2831,11 @@
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="G8" s="14" t="s">
         <v>1</v>
       </c>
@@ -2843,11 +2843,11 @@
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
@@ -2856,11 +2856,11 @@
       <c r="B10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
@@ -3286,16 +3286,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="2"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2"/>
       <c r="H4" s="43" t="s">
         <v>66</v>
@@ -3319,11 +3319,11 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="13"/>
       <c r="H7" s="14" t="s">
         <v>2</v>
@@ -3331,11 +3331,11 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="13"/>
       <c r="H8" s="14" t="s">
         <v>1</v>
@@ -3343,22 +3343,22 @@
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="13"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
